--- a/resultats_nouveaux_points_fbas.xlsx
+++ b/resultats_nouveaux_points_fbas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c6d2936775fb277a/Documents/GitHub/piano_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="138" documentId="11_2B59D2BFD3B05D7673B832115971B0B45C8BF522" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{151BC0D9-BC7F-45C3-B378-E5F1192E5BFD}"/>
+  <xr:revisionPtr revIDLastSave="146" documentId="11_2B59D2BFD3B05D7673B832115971B0B45C8BF522" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3E3CC67-701E-42C0-86FF-E3878EFB3D1A}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -268,14 +268,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -491,8 +490,182 @@
           <c:errBars>
             <c:errDir val="y"/>
             <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
+            <c:errValType val="cust"/>
             <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$D$2:$D$27</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="26"/>
+                  <c:pt idx="0">
+                    <c:v>7.6610584988890014E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>9.146929898928291E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>9.6816313201664173E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>5.3291349028271122E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>7.8639244798177647E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>7.6559368287058556E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1.188351516387502E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1.4119044846450531E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1.334417419515146E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>3.141663314119675E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>2.9371107974620839E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>3.315688885733652E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>2.3762554712884582E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>1.8270823179480579E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>1.367970973502745E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>2.4158620768804382E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>1.3938608400889689E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>5.8537185747295842E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>6.0731587775031542E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>7.8239994081425821E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>1.0615167163643189E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>7.382743946441421E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>4.5569959925440169E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>1.026605391505909E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>3.6518898258994471E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>1.9006989355454041E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$D$2:$D$27</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="26"/>
+                  <c:pt idx="0">
+                    <c:v>7.6610584988890014E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>9.146929898928291E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>9.6816313201664173E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>5.3291349028271122E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>7.8639244798177647E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>7.6559368287058556E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1.188351516387502E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1.4119044846450531E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1.334417419515146E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>3.141663314119675E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>2.9371107974620839E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>3.315688885733652E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>2.3762554712884582E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>1.8270823179480579E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>1.367970973502745E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>2.4158620768804382E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>1.3938608400889689E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>5.8537185747295842E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>6.0731587775031542E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>7.8239994081425821E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>1.0615167163643189E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>7.382743946441421E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>4.5569959925440169E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>1.026605391505909E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>3.6518898258994471E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>1.9006989355454041E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
             <c:spPr>
               <a:noFill/>
               <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -745,10 +918,10 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Sheet1!$G$2:$G$18</c:f>
+                <c:f>Sheet1!$G$2:$G$27</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="17"/>
+                  <c:ptCount val="26"/>
                   <c:pt idx="0">
                     <c:v>1.5379684303538499E-2</c:v>
                   </c:pt>
@@ -799,16 +972,43 @@
                   </c:pt>
                   <c:pt idx="16">
                     <c:v>3.0098174829204981E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>0.34807160283996758</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>0.32682790984879789</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>0.43202627011373101</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>0.62394161092996148</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>13.137134259518451</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>0.17684563724139701</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>1.673911302769274E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>2.9417106213415999E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>2.800178899751404E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Sheet1!$G$2:$G$18</c:f>
+                <c:f>Sheet1!$G$2:$G$27</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="17"/>
+                  <c:ptCount val="26"/>
                   <c:pt idx="0">
                     <c:v>1.5379684303538499E-2</c:v>
                   </c:pt>
@@ -859,6 +1059,33 @@
                   </c:pt>
                   <c:pt idx="16">
                     <c:v>3.0098174829204981E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>0.34807160283996758</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>0.32682790984879789</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>0.43202627011373101</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>0.62394161092996148</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>13.137134259518451</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>0.17684563724139701</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>1.673911302769274E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>2.9417106213415999E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>2.800178899751404E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -880,8 +1107,182 @@
           <c:errBars>
             <c:errDir val="y"/>
             <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
+            <c:errValType val="cust"/>
             <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$G$2:$G$27</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="26"/>
+                  <c:pt idx="0">
+                    <c:v>1.5379684303538499E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.1798584293909399E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.2877324722565919E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.5468549833842221E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.1090570967024E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>8.6276608264192062E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2.9610480237363079E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2.286584620849054E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>2.6638105196724791E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.1144683934069634</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>7.6215424493744077E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>9.9699421988404563E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>7.6845062864159139E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>4.7933471241042143E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>1.470093707840423E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>0.1012011590169411</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>3.0098174829204981E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>0.34807160283996758</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>0.32682790984879789</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>0.43202627011373101</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>0.62394161092996148</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>13.137134259518451</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>0.17684563724139701</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>1.673911302769274E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>2.9417106213415999E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>2.800178899751404E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$G$2:$G$27</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="26"/>
+                  <c:pt idx="0">
+                    <c:v>1.5379684303538499E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.1798584293909399E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.2877324722565919E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.5468549833842221E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.1090570967024E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>8.6276608264192062E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2.9610480237363079E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2.286584620849054E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>2.6638105196724791E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.1144683934069634</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>7.6215424493744077E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>9.9699421988404563E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>7.6845062864159139E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>4.7933471241042143E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>1.470093707840423E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>0.1012011590169411</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>3.0098174829204981E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>0.34807160283996758</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>0.32682790984879789</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>0.43202627011373101</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>0.62394161092996148</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>13.137134259518451</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>0.17684563724139701</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>1.673911302769274E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>2.9417106213415999E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>2.800178899751404E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
             <c:spPr>
               <a:noFill/>
               <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1215,6 +1616,7 @@
         <c:axId val="674556176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.25"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1330,6 +1732,8 @@
         <c:axId val="786457744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="3"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
@@ -1439,6 +1843,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="786457744"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -2146,6 +2551,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2433,8 +2842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="57" workbookViewId="0">
-      <selection activeCell="S27" sqref="S27"/>
+    <sheetView tabSelected="1" topLeftCell="G14" zoomScale="133" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2519,7 +2928,7 @@
         <v>1.248192115572673</v>
       </c>
       <c r="N2">
-        <f t="shared" ref="N2:N21" si="1">M2/2</f>
+        <f t="shared" ref="N2:N3" si="1">M2/2</f>
         <v>0.62409605778633648</v>
       </c>
       <c r="O2">
@@ -3422,7 +3831,7 @@
       <c r="E36">
         <v>1.0536140760096491</v>
       </c>
-      <c r="F36" s="4">
+      <c r="F36">
         <f t="shared" si="0"/>
         <v>0.52680703800482453</v>
       </c>
@@ -3518,7 +3927,7 @@
       <c r="E40">
         <v>1.904856578167142</v>
       </c>
-      <c r="F40" s="4">
+      <c r="F40">
         <f t="shared" si="0"/>
         <v>0.95242828908357102</v>
       </c>
